--- a/Spielweise in R (Level 3)/09_laser_erdbeeren/strawberry_sugar.xlsx
+++ b/Spielweise in R (Level 3)/09_laser_erdbeeren/strawberry_sugar.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jokruppa\work\consulting\Mansfeld_Niklas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jokruppa\Documents\GitHub\teaching\Spielweise in R (Level 3)\09_laser_erdbeeren\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33956AC7-C188-47E8-AD13-4C8E6C808028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37851C0A-9AFB-4A7B-A9B2-890A75800619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="324" windowWidth="24468" windowHeight="13212" xr2:uid="{A58A59D4-CA4D-0D4E-B103-8D6DA32463BC}"/>
+    <workbookView xWindow="3228" yWindow="672" windowWidth="20568" windowHeight="14244" activeTab="1" xr2:uid="{A58A59D4-CA4D-0D4E-B103-8D6DA32463BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Boniturnote</t>
   </si>
@@ -63,6 +64,24 @@
   </si>
   <si>
     <t>Fruchtnummer</t>
+  </si>
+  <si>
+    <t>Brixwert 1</t>
+  </si>
+  <si>
+    <t>Brixwert 2</t>
+  </si>
+  <si>
+    <t>Brix Mittel</t>
+  </si>
+  <si>
+    <t>Erdbeer_ID</t>
+  </si>
+  <si>
+    <t>E 1.1</t>
+  </si>
+  <si>
+    <t>E 1.2</t>
   </si>
 </sst>
 </file>
@@ -137,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -149,6 +168,24 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -466,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D6EAD3-D1B6-1349-B823-0C5C4C73AADA}">
   <dimension ref="A1:L105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2152,4 +2189,118 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C43661C-08BF-4922-857C-3CC9ECE70198}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.796875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="16.796875" style="12" customWidth="1"/>
+    <col min="4" max="5" width="11.19921875" style="11"/>
+    <col min="6" max="6" width="13" style="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="10">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10">
+        <v>1</v>
+      </c>
+      <c r="D2" s="11">
+        <v>5.5</v>
+      </c>
+      <c r="E2" s="11">
+        <v>5.3</v>
+      </c>
+      <c r="F2" s="11">
+        <f>AVERAGE(D2:D3)</f>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="12">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12">
+        <v>2</v>
+      </c>
+      <c r="D3" s="11">
+        <v>5.5</v>
+      </c>
+      <c r="E3" s="11">
+        <v>5.6</v>
+      </c>
+      <c r="F3" s="11">
+        <f>AVERAGE(D2:D3)</f>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C15" s="11"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>